--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Intellect Design Arena Ltd/Pruned_Excel/Final_Parameters/Intellect Design Arena Ltd_Cleaned_Data_Updated.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Intellect Design Arena Ltd/Pruned_Excel/Final_Parameters/Intellect Design Arena Ltd_Cleaned_Data_Updated.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="131">
   <si>
     <t>Balance Sheet of Intellect Design Arena(in Rs. Cr.)</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>P/l before exceptional items &amp; tax</t>
+  </si>
+  <si>
+    <t>Exceptional items</t>
   </si>
   <si>
     <t>P/l before tax</t>
@@ -2322,13 +2325,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -2389,10 +2392,13 @@
       <c r="T1" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>118.87</v>
@@ -2421,23 +2427,20 @@
       <c r="K2">
         <v>-18.44</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>-18.44</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.19</v>
-      </c>
-      <c r="N2">
-        <v>-18.63</v>
       </c>
       <c r="O2">
         <v>-18.63</v>
       </c>
       <c r="P2">
+        <v>-18.63</v>
+      </c>
+      <c r="Q2">
         <v>49.92</v>
-      </c>
-      <c r="Q2">
-        <v>-1.87</v>
       </c>
       <c r="R2">
         <v>-1.87</v>
@@ -2448,10 +2451,13 @@
       <c r="T2">
         <v>-1.87</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2">
+        <v>-1.87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>136.18</v>
@@ -2480,34 +2486,34 @@
       <c r="K3">
         <v>2.25</v>
       </c>
-      <c r="L3">
-        <v>2.25</v>
-      </c>
-      <c r="N3">
+      <c r="M3">
         <v>2.25</v>
       </c>
       <c r="O3">
         <v>2.25</v>
       </c>
       <c r="P3">
+        <v>2.25</v>
+      </c>
+      <c r="Q3">
         <v>50.31</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.22</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.21</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.22</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>142.59</v>
@@ -2536,34 +2542,34 @@
       <c r="K4">
         <v>12.66</v>
       </c>
-      <c r="L4">
-        <v>12.66</v>
-      </c>
-      <c r="N4">
+      <c r="M4">
         <v>12.66</v>
       </c>
       <c r="O4">
         <v>12.66</v>
       </c>
       <c r="P4">
+        <v>12.66</v>
+      </c>
+      <c r="Q4">
         <v>50.28</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1.26</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1.22</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1.26</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1.22</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>120.94</v>
@@ -2592,23 +2598,20 @@
       <c r="K5">
         <v>-3.81</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-3.81</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.43</v>
-      </c>
-      <c r="N5">
-        <v>-4.23</v>
       </c>
       <c r="O5">
         <v>-4.23</v>
       </c>
       <c r="P5">
+        <v>-4.23</v>
+      </c>
+      <c r="Q5">
         <v>50.2</v>
-      </c>
-      <c r="Q5">
-        <v>-0.42</v>
       </c>
       <c r="R5">
         <v>-0.42</v>
@@ -2619,10 +2622,13 @@
       <c r="T5">
         <v>-0.42</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>124.08</v>
@@ -2651,23 +2657,20 @@
       <c r="K6">
         <v>-22.31</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-22.31</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-1.35</v>
-      </c>
-      <c r="N6">
-        <v>-20.96</v>
       </c>
       <c r="O6">
         <v>-20.96</v>
       </c>
       <c r="P6">
+        <v>-20.96</v>
+      </c>
+      <c r="Q6">
         <v>50.1</v>
-      </c>
-      <c r="Q6">
-        <v>-2.1</v>
       </c>
       <c r="R6">
         <v>-2.1</v>
@@ -2678,10 +2681,13 @@
       <c r="T6">
         <v>-2.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>124.89</v>
@@ -2713,20 +2719,17 @@
       <c r="K7">
         <v>-21.59</v>
       </c>
-      <c r="L7">
-        <v>-21.59</v>
-      </c>
-      <c r="N7">
+      <c r="M7">
         <v>-21.59</v>
       </c>
       <c r="O7">
         <v>-21.59</v>
       </c>
       <c r="P7">
+        <v>-21.59</v>
+      </c>
+      <c r="Q7">
         <v>50.56</v>
-      </c>
-      <c r="Q7">
-        <v>-2.09</v>
       </c>
       <c r="R7">
         <v>-2.09</v>
@@ -2737,10 +2740,13 @@
       <c r="T7">
         <v>-2.09</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7">
+        <v>-2.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8">
         <v>125.86</v>
@@ -2772,20 +2778,17 @@
       <c r="K8">
         <v>-13.36</v>
       </c>
-      <c r="L8">
-        <v>-13.36</v>
-      </c>
-      <c r="N8">
+      <c r="M8">
         <v>-13.36</v>
       </c>
       <c r="O8">
         <v>-13.36</v>
       </c>
       <c r="P8">
+        <v>-13.36</v>
+      </c>
+      <c r="Q8">
         <v>50.55</v>
-      </c>
-      <c r="Q8">
-        <v>-1.22</v>
       </c>
       <c r="R8">
         <v>-1.22</v>
@@ -2796,10 +2799,13 @@
       <c r="T8">
         <v>-1.22</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8">
+        <v>-1.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9">
         <v>130.23</v>
@@ -2831,34 +2837,34 @@
       <c r="K9">
         <v>3.72</v>
       </c>
-      <c r="L9">
-        <v>3.72</v>
-      </c>
-      <c r="N9">
+      <c r="M9">
         <v>3.72</v>
       </c>
       <c r="O9">
         <v>3.72</v>
       </c>
       <c r="P9">
+        <v>3.72</v>
+      </c>
+      <c r="Q9">
         <v>50.52</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.44</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.43</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>0.44</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.43</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>146.4</v>
@@ -2890,37 +2896,37 @@
       <c r="K10">
         <v>10.84</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>10.84</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-11.18</v>
-      </c>
-      <c r="N10">
-        <v>22.01</v>
       </c>
       <c r="O10">
         <v>22.01</v>
       </c>
       <c r="P10">
+        <v>22.01</v>
+      </c>
+      <c r="Q10">
         <v>50.39</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2.19</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>2.08</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>2.19</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>2.08</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <v>135.99</v>
@@ -2952,20 +2958,17 @@
       <c r="K11">
         <v>-24.93</v>
       </c>
-      <c r="L11">
-        <v>-24.93</v>
-      </c>
-      <c r="N11">
+      <c r="M11">
         <v>-24.93</v>
       </c>
       <c r="O11">
         <v>-24.93</v>
       </c>
       <c r="P11">
+        <v>-24.93</v>
+      </c>
+      <c r="Q11">
         <v>50.87</v>
-      </c>
-      <c r="Q11">
-        <v>-2.47</v>
       </c>
       <c r="R11">
         <v>-2.47</v>
@@ -2976,10 +2979,13 @@
       <c r="T11">
         <v>-2.47</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>-2.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12">
         <v>178.11</v>
@@ -3011,37 +3017,37 @@
       <c r="K12">
         <v>17.86</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>17.86</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.32</v>
-      </c>
-      <c r="N12">
-        <v>17.54</v>
       </c>
       <c r="O12">
         <v>17.54</v>
       </c>
       <c r="P12">
+        <v>17.54</v>
+      </c>
+      <c r="Q12">
         <v>62.56</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1.52</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1.49</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1.52</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1.49</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13">
         <v>152.78</v>
@@ -3073,34 +3079,34 @@
       <c r="K13">
         <v>5.68</v>
       </c>
-      <c r="L13">
-        <v>5.68</v>
-      </c>
-      <c r="N13">
+      <c r="M13">
         <v>5.68</v>
       </c>
       <c r="O13">
         <v>5.68</v>
       </c>
       <c r="P13">
+        <v>5.68</v>
+      </c>
+      <c r="Q13">
         <v>62.54</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>0.52</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.51</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>0.52</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>0.51</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14">
         <v>123.1</v>
@@ -3132,20 +3138,17 @@
       <c r="K14">
         <v>-22.51</v>
       </c>
-      <c r="L14">
-        <v>-22.51</v>
-      </c>
-      <c r="N14">
+      <c r="M14">
         <v>-22.51</v>
       </c>
       <c r="O14">
         <v>-22.51</v>
       </c>
       <c r="P14">
+        <v>-22.51</v>
+      </c>
+      <c r="Q14">
         <v>50.9</v>
-      </c>
-      <c r="Q14">
-        <v>-2.21</v>
       </c>
       <c r="R14">
         <v>-2.21</v>
@@ -3156,10 +3159,13 @@
       <c r="T14">
         <v>-2.21</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14">
+        <v>-2.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15">
         <v>194.16</v>
@@ -3191,37 +3197,37 @@
       <c r="K15">
         <v>56.43</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>56.43</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-2.2</v>
-      </c>
-      <c r="N15">
-        <v>58.63</v>
       </c>
       <c r="O15">
         <v>58.63</v>
       </c>
       <c r="P15">
+        <v>58.63</v>
+      </c>
+      <c r="Q15">
         <v>62.93</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>4.66</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>4.5</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>4.66</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>4.5</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16">
         <v>217.48</v>
@@ -3253,37 +3259,37 @@
       <c r="K16">
         <v>34.02</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>34.02</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1.89</v>
-      </c>
-      <c r="N16">
-        <v>32.13</v>
       </c>
       <c r="O16">
         <v>32.13</v>
       </c>
       <c r="P16">
+        <v>32.13</v>
+      </c>
+      <c r="Q16">
         <v>62.76</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2.57</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>2.48</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>2.57</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>2.48</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B17">
         <v>234.64</v>
@@ -3315,34 +3321,34 @@
       <c r="K17">
         <v>22.53</v>
       </c>
-      <c r="L17">
-        <v>22.53</v>
-      </c>
-      <c r="N17">
+      <c r="M17">
         <v>22.53</v>
       </c>
       <c r="O17">
         <v>22.53</v>
       </c>
       <c r="P17">
+        <v>22.53</v>
+      </c>
+      <c r="Q17">
         <v>65.75</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>1.71</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1.66</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1.71</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1.66</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18">
         <v>253.04</v>
@@ -3374,34 +3380,34 @@
       <c r="K18">
         <v>50.53</v>
       </c>
-      <c r="L18">
-        <v>50.53</v>
-      </c>
-      <c r="N18">
+      <c r="M18">
         <v>50.53</v>
       </c>
       <c r="O18">
         <v>50.53</v>
       </c>
       <c r="P18">
+        <v>50.53</v>
+      </c>
+      <c r="Q18">
         <v>65.58</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>3.97</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>3.83</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>3.97</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>3.83</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19">
         <v>180.6</v>
@@ -3433,20 +3439,17 @@
       <c r="K19">
         <v>-13.32</v>
       </c>
-      <c r="L19">
-        <v>-13.32</v>
-      </c>
-      <c r="N19">
+      <c r="M19">
         <v>-13.32</v>
       </c>
       <c r="O19">
         <v>-13.32</v>
       </c>
       <c r="P19">
+        <v>-13.32</v>
+      </c>
+      <c r="Q19">
         <v>66.09999999999999</v>
-      </c>
-      <c r="Q19">
-        <v>-1.01</v>
       </c>
       <c r="R19">
         <v>-1.01</v>
@@ -3457,10 +3460,13 @@
       <c r="T19">
         <v>-1.01</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20">
         <v>175.31</v>
@@ -3493,19 +3499,19 @@
         <v>-5.56</v>
       </c>
       <c r="L20">
-        <v>-0.51</v>
-      </c>
-      <c r="N20">
+        <v>5.06</v>
+      </c>
+      <c r="M20">
         <v>-0.51</v>
       </c>
       <c r="O20">
         <v>-0.51</v>
       </c>
       <c r="P20">
+        <v>-0.51</v>
+      </c>
+      <c r="Q20">
         <v>65.95999999999999</v>
-      </c>
-      <c r="Q20">
-        <v>-0.04</v>
       </c>
       <c r="R20">
         <v>-0.04</v>
@@ -3516,10 +3522,13 @@
       <c r="T20">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21">
         <v>248.91</v>
@@ -3551,37 +3560,37 @@
       <c r="K21">
         <v>13.47</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>13.47</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>7.92</v>
-      </c>
-      <c r="N21">
-        <v>5.56</v>
       </c>
       <c r="O21">
         <v>5.56</v>
       </c>
       <c r="P21">
+        <v>5.56</v>
+      </c>
+      <c r="Q21">
         <v>65.89</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.42</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.41</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.42</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.41</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B22">
         <v>181.76</v>
@@ -3613,20 +3622,17 @@
       <c r="K22">
         <v>-36.37</v>
       </c>
-      <c r="L22">
-        <v>-36.37</v>
-      </c>
-      <c r="N22">
+      <c r="M22">
         <v>-36.37</v>
       </c>
       <c r="O22">
         <v>-36.37</v>
       </c>
       <c r="P22">
+        <v>-36.37</v>
+      </c>
+      <c r="Q22">
         <v>66.13</v>
-      </c>
-      <c r="Q22">
-        <v>-2.75</v>
       </c>
       <c r="R22">
         <v>-2.75</v>
@@ -3637,10 +3643,13 @@
       <c r="T22">
         <v>-2.75</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22">
+        <v>-2.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B23">
         <v>271.36</v>
@@ -3672,37 +3681,37 @@
       <c r="K23">
         <v>69.97</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>69.97</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>3.38</v>
-      </c>
-      <c r="N23">
-        <v>66.59</v>
       </c>
       <c r="O23">
         <v>66.59</v>
       </c>
       <c r="P23">
+        <v>66.59</v>
+      </c>
+      <c r="Q23">
         <v>66.33</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>5.02</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>4.76</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>5.02</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>4.76</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B24">
         <v>238.76</v>
@@ -3734,37 +3743,37 @@
       <c r="K24">
         <v>51.05</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>51.05</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>5.05</v>
-      </c>
-      <c r="N24">
-        <v>46</v>
       </c>
       <c r="O24">
         <v>46</v>
       </c>
       <c r="P24">
+        <v>46</v>
+      </c>
+      <c r="Q24">
         <v>66.27</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>3.47</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>3.42</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>3.47</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>3.42</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B25">
         <v>212.81</v>
@@ -3796,23 +3805,20 @@
       <c r="K25">
         <v>42.23</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>42.23</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>3.3</v>
-      </c>
-      <c r="N25">
-        <v>38.94</v>
       </c>
       <c r="O25">
         <v>38.94</v>
       </c>
       <c r="P25">
+        <v>38.94</v>
+      </c>
+      <c r="Q25">
         <v>66.22</v>
-      </c>
-      <c r="Q25">
-        <v>2.94</v>
       </c>
       <c r="R25">
         <v>2.94</v>
@@ -3823,10 +3829,13 @@
       <c r="T25">
         <v>2.94</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B26">
         <v>203.67</v>
@@ -3858,37 +3867,37 @@
       <c r="K26">
         <v>30.44</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>30.44</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>11.53</v>
-      </c>
-      <c r="N26">
-        <v>18.92</v>
       </c>
       <c r="O26">
         <v>18.92</v>
       </c>
       <c r="P26">
+        <v>18.92</v>
+      </c>
+      <c r="Q26">
         <v>66.17</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1.43</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1.42</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1.43</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1.42</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B27">
         <v>314.75</v>
@@ -3920,37 +3929,37 @@
       <c r="K27">
         <v>49.98</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>49.98</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>10.3</v>
-      </c>
-      <c r="N27">
-        <v>39.68</v>
       </c>
       <c r="O27">
         <v>39.68</v>
       </c>
       <c r="P27">
+        <v>39.68</v>
+      </c>
+      <c r="Q27">
         <v>67.17</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>2.98</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>2.84</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>2.98</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>2.84</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B28">
         <v>313.27</v>
@@ -3982,37 +3991,37 @@
       <c r="K28">
         <v>76.45</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>76.45</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>20.24</v>
-      </c>
-      <c r="N28">
-        <v>56.21</v>
       </c>
       <c r="O28">
         <v>56.21</v>
       </c>
       <c r="P28">
+        <v>56.21</v>
+      </c>
+      <c r="Q28">
         <v>67.06</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>4.23</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>4.03</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>4.23</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>4.03</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B29">
         <v>277.62</v>
@@ -4044,37 +4053,37 @@
       <c r="K29">
         <v>66.26000000000001</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>66.26000000000001</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>11.8</v>
-      </c>
-      <c r="N29">
-        <v>54.46</v>
       </c>
       <c r="O29">
         <v>54.46</v>
       </c>
       <c r="P29">
+        <v>54.46</v>
+      </c>
+      <c r="Q29">
         <v>66.88</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>4.09</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>3.89</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>4.09</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>3.89</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B30">
         <v>280.3</v>
@@ -4106,37 +4115,37 @@
       <c r="K30">
         <v>59.33</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>59.33</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>3.6</v>
-      </c>
-      <c r="N30">
-        <v>55.73</v>
       </c>
       <c r="O30">
         <v>55.73</v>
       </c>
       <c r="P30">
+        <v>55.73</v>
+      </c>
+      <c r="Q30">
         <v>66.48999999999999</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>4.2</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>4.09</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>4.2</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>4.09</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B31">
         <v>349.37</v>
@@ -4168,37 +4177,37 @@
       <c r="K31">
         <v>71.69</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>71.69</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>19.95</v>
-      </c>
-      <c r="N31">
-        <v>51.74</v>
       </c>
       <c r="O31">
         <v>51.74</v>
       </c>
       <c r="P31">
+        <v>51.74</v>
+      </c>
+      <c r="Q31">
         <v>67.28</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>3.88</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>3.71</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>3.88</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>3.71</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B32">
         <v>348.3</v>
@@ -4230,37 +4239,37 @@
       <c r="K32">
         <v>50.85</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>50.85</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>14.68</v>
-      </c>
-      <c r="N32">
-        <v>36.17</v>
       </c>
       <c r="O32">
         <v>36.17</v>
       </c>
       <c r="P32">
+        <v>36.17</v>
+      </c>
+      <c r="Q32">
         <v>67.77</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>2.69</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>2.6</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>2.69</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>2.6</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B33">
         <v>348.11</v>
@@ -4292,37 +4301,37 @@
       <c r="K33">
         <v>24.93</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>24.93</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>7.99</v>
-      </c>
-      <c r="N33">
-        <v>16.94</v>
       </c>
       <c r="O33">
         <v>16.94</v>
       </c>
       <c r="P33">
+        <v>16.94</v>
+      </c>
+      <c r="Q33">
         <v>67.70999999999999</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>1.26</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>1.22</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>1.26</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>1.22</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B34">
         <v>362.25</v>
@@ -4354,37 +4363,37 @@
       <c r="K34">
         <v>61.04</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>61.04</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>20.1</v>
-      </c>
-      <c r="N34">
-        <v>40.94</v>
       </c>
       <c r="O34">
         <v>40.94</v>
       </c>
       <c r="P34">
+        <v>40.94</v>
+      </c>
+      <c r="Q34">
         <v>67.48999999999999</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>3.06</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>2.94</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>3.06</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>2.94</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B35">
         <v>423.86</v>
@@ -4416,37 +4425,37 @@
       <c r="K35">
         <v>78.59</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>78.59</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>25.74</v>
-      </c>
-      <c r="N35">
-        <v>52.85</v>
       </c>
       <c r="O35">
         <v>52.85</v>
       </c>
       <c r="P35">
+        <v>52.85</v>
+      </c>
+      <c r="Q35">
         <v>68.06999999999999</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>3.92</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>3.79</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>3.92</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>3.79</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36">
         <v>411.45</v>
@@ -4478,37 +4487,37 @@
       <c r="K36">
         <v>65.48</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>65.48</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>25.53</v>
-      </c>
-      <c r="N36">
-        <v>39.94</v>
       </c>
       <c r="O36">
         <v>39.94</v>
       </c>
       <c r="P36">
+        <v>39.94</v>
+      </c>
+      <c r="Q36">
         <v>67.86</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>2.97</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>2.84</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>2.97</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>2.84</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B37">
         <v>420.6</v>
@@ -4540,37 +4549,37 @@
       <c r="K37">
         <v>71.59999999999999</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>71.59999999999999</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>22.91</v>
-      </c>
-      <c r="N37">
-        <v>48.69</v>
       </c>
       <c r="O37">
         <v>48.69</v>
       </c>
       <c r="P37">
+        <v>48.69</v>
+      </c>
+      <c r="Q37">
         <v>68.34999999999999</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>3.59</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>3.47</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>3.59</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>3.47</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B38">
         <v>407.72</v>
@@ -4602,37 +4611,37 @@
       <c r="K38">
         <v>51.4</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>51.4</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>15.52</v>
-      </c>
-      <c r="N38">
-        <v>35.88</v>
       </c>
       <c r="O38">
         <v>35.88</v>
       </c>
       <c r="P38">
+        <v>35.88</v>
+      </c>
+      <c r="Q38">
         <v>68.26000000000001</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>2.65</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>2.56</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>2.65</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>2.56</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B39">
         <v>334.16</v>
@@ -4664,37 +4673,37 @@
       <c r="K39">
         <v>33.13</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>33.13</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>8.99</v>
-      </c>
-      <c r="N39">
-        <v>24.14</v>
       </c>
       <c r="O39">
         <v>24.14</v>
       </c>
       <c r="P39">
+        <v>24.14</v>
+      </c>
+      <c r="Q39">
         <v>69.09</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>1.76</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>1.7</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>1.76</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>1.7</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B40">
         <v>385.35</v>
@@ -4726,37 +4735,37 @@
       <c r="K40">
         <v>60.85</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>60.85</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>14.93</v>
-      </c>
-      <c r="N40">
-        <v>45.92</v>
       </c>
       <c r="O40">
         <v>45.92</v>
       </c>
       <c r="P40">
+        <v>45.92</v>
+      </c>
+      <c r="Q40">
         <v>68.62</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>3.37</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>3.24</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>3.37</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>3.24</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B41">
         <v>426.76</v>
@@ -4788,31 +4797,31 @@
       <c r="K41">
         <v>63.52</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>63.52</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>22.83</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>40.69</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>28.18</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>68.41</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>2.07</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>1.99</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>2.07</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>1.99</v>
       </c>
     </row>
@@ -4831,58 +4840,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:18">
